--- a/resources/testData/T24.xlsx
+++ b/resources/testData/T24.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="20">
   <si>
     <t>ExecutionFlag</t>
   </si>
@@ -45,6 +45,33 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Anbalagan</t>
+  </si>
+  <si>
+    <t>SA@gmail.com</t>
+  </si>
+  <si>
+    <t>TC_001_Form</t>
+  </si>
+  <si>
+    <t>Resh</t>
+  </si>
+  <si>
+    <t>Paki</t>
+  </si>
+  <si>
+    <t>RP@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -89,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -103,10 +130,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
@@ -114,13 +144,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -128,13 +161,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
